--- a/docs/design.xlsx
+++ b/docs/design.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app\server\public_html\Part_Time_Stopwatch_PS\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5934F65-8A4B-4189-9597-C9BBD531603C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="432" yWindow="1572" windowWidth="20220" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,115 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>関数名</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timer_stop_button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timer_start_button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了ボタンを押したときに呼び出される．send.phpにpostを投げる</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートボタンを押したときに呼び出される．send.phpにpostを投げる</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +156,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +438,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/design.xlsx
+++ b/docs/design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app\server\public_html\Part_Time_Stopwatch_PS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5934F65-8A4B-4189-9597-C9BBD531603C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FA4D73-092B-4C3E-ADF1-19A242C7A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="432" yWindow="1572" windowWidth="20220" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2856" yWindow="492" windowWidth="20220" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>関数名</t>
     <rPh sb="0" eb="2">
@@ -37,6 +37,72 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了ボタンを押したときに呼び出される．ポップアップを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_start_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>引数</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
@@ -44,44 +110,118 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その他</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>補足</t>
-    <rPh sb="0" eb="2">
-      <t>ホソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>app.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>void</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>timer_stop_button</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>timer_start_button</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終了ボタンを押したときに呼び出される．send.phpにpostを投げる</t>
+    <t>postはstart_timeとuser_idを含む</t>
+    <rPh sb="24" eb="25">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_part_times</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get_logs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>part_timesテーブルの情報を取ってくる．get_part_times.phpにGETを投げる</t>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object(start_time, end_time, job_info, others)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start_button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add_start_time.phpにPOSTを投げる</t>
+    <rPh sb="24" eb="25">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end_button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>change_button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trueの時スタートボタン，falseの時終了ボタンを表示する</t>
+    <rPh sb="5" eb="6">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートボタンを押したときに呼び出される．post_start_time，change_button(false)を呼び出す</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel_button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel出力ボタンを押したときに呼び出される．</t>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show_input_info_popup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了ボタンを押したときに呼び出される．show_input_info_popupを呼び出す</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
@@ -94,23 +234,156 @@
     <rPh sb="14" eb="15">
       <t>ダ</t>
     </rPh>
-    <rPh sb="33" eb="34">
+    <rPh sb="41" eb="42">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show_input_excel_popup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excelの入力を求めるポップアップを表示する</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excelファイルは特定の形式に限る</t>
+    <rPh sb="10" eb="12">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel_confirm_button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input_confirm_button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報入力のポップアップの完了ボタンを押したときに呼び出される．ポップアップを閉じる．change_button(true)，post_part_timesを呼び出す</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excelのポップアップの完了ボタンを押したときに呼び出される．ポップアップを閉じる</t>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add_part_times.phpにPOSTを投げる</t>
+    <rPh sb="24" eb="25">
       <t>ナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スタートボタンを押したときに呼び出される．send.phpにpostを投げる</t>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
+    <t>postはstart_time，end_time，user_id，job_info，others，job_idを含む</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get_start_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object(start_time)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object(user_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object(user_id, start_time, end_time, user_id, job_info, job_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object(user_id, start_time)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check_start_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock_timesテーブルにuser_idが存在するか確認する(存在するならtrue, しないならfalse)</t>
+    <rPh sb="24" eb="26">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock_timesテーブルからuser_idのstart_timeを取ってくるget_start_time.phpにGETを投げる</t>
+    <rPh sb="36" eb="37">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="64" eb="65">
       <t>ナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -439,62 +712,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/docs/design.xlsx
+++ b/docs/design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app\server\public_html\Part_Time_Stopwatch_PS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FA4D73-092B-4C3E-ADF1-19A242C7A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15710F27-708E-4614-892C-7130BF010DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="492" windowWidth="20220" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1188" yWindow="516" windowWidth="20220" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>関数名</t>
     <rPh sb="0" eb="2">
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>app.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>void</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -130,10 +126,7 @@
       <t>ジョウホウ</t>
     </rPh>
     <rPh sb="23" eb="24">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ナ</t>
+      <t>トナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -157,10 +150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>change_button</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -178,42 +167,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スタートボタンを押したときに呼び出される．post_start_time，change_button(false)を呼び出す</t>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>excel_button</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>excel出力ボタンを押したときに呼び出される．</t>
-    <rPh sb="5" eb="7">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ダ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -281,56 +235,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>情報入力のポップアップの完了ボタンを押したときに呼び出される．ポップアップを閉じる．change_button(true)，post_part_timesを呼び出す</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>excelのポップアップの完了ボタンを押したときに呼び出される．ポップアップを閉じる</t>
-    <rPh sb="13" eb="15">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>add_part_times.phpにPOSTを投げる</t>
     <rPh sb="24" eb="25">
       <t>ナ</t>
@@ -385,6 +289,267 @@
     </rPh>
     <rPh sb="64" eb="65">
       <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>----</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show_login_page</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlを表示する(こちらに直接アクセスしてきた時用)</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_change_excel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルを選択ボタンを押したときに呼び出される．</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel出力ボタンを押したときに呼び出される．show_input_excel_popupを呼び出す</t>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*select_file_button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;inputで代用&gt;</t>
+    <rPh sb="7" eb="9">
+      <t>ダイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add_job_info_for_excel.phpにPOSTを投げる</t>
+    <rPh sb="32" eb="33">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postはexcelファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excelのポップアップの完了ボタンを押したときに呼び出される．ポップアップを閉じる．post_change_excelを呼び出す</t>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>change_show_button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートボタンを押したときに呼び出される．post_start_time，change_show_button(false)を呼び出す</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報入力のポップアップの完了ボタンを押したときに呼び出される．ポップアップを閉じる．change_show_button(true)，post_part_timesを呼び出す</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contents.htmlが表示されたときに呼び出される．get_logs，change_show_button(!chack_start_time)を呼び出す</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contents.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object(user_id, password)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postはuser_idとpasswordを含む</t>
+    <rPh sb="22" eb="23">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login_button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show_contents_page</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contents.htmlを表示する</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボタンを押したときに呼び出される．If(post_login){show_contents_page}を行う</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpにPOSTを投げる．ログインできるときはtrueを返すまた，$_SESSIONを設定する</t>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -712,16 +877,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -733,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -747,185 +912,179 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>25</v>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
         <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -933,13 +1092,146 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
-        <v>42</v>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/docs/design.xlsx
+++ b/docs/design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app\server\public_html\Part_Time_Stopwatch_PS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15710F27-708E-4614-892C-7130BF010DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3BD09A-C383-469B-A03C-DA0A2AD13C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1188" yWindow="516" windowWidth="20220" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1572" yWindow="324" windowWidth="20220" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>関数名</t>
     <rPh sb="0" eb="2">
@@ -258,10 +258,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>object(user_id, start_time, end_time, user_id, job_info, job_id)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>object(user_id, start_time)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -297,10 +293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>show_login_page</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>index.htmlを表示する(こちらに直接アクセスしてきた時用)</t>
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
@@ -551,6 +543,34 @@
     <rPh sb="49" eb="51">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代案</t>
+    <rPh sb="0" eb="2">
+      <t>ダイアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpを直接書き込んで制御($_SESSION)</t>
+    <rPh sb="4" eb="7">
+      <t>チョクセツカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*show_login_page</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object(user_id, start_time, end_time, user_id, job_info)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -877,11 +897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -890,7 +910,7 @@
     <col min="5" max="5" width="39.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -909,14 +929,17 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -927,10 +950,10 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -944,7 +967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
@@ -955,10 +978,10 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -969,12 +992,12 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -983,13 +1006,13 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1000,15 +1023,15 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -1022,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -1039,9 +1062,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -1050,18 +1073,21 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -1070,15 +1096,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -1087,24 +1113,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -1129,12 +1155,12 @@
         <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -1148,7 +1174,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -1157,17 +1183,17 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -1176,17 +1202,17 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1195,34 +1221,34 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -1231,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/docs/design.xlsx
+++ b/docs/design.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app\server\public_html\Part_Time_Stopwatch_PS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3BD09A-C383-469B-A03C-DA0A2AD13C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581DCFBB-F62D-47E2-AF35-501C434D09B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1572" yWindow="324" windowWidth="20220" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="240" windowWidth="20220" windowHeight="11736" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="スプリント01" sheetId="1" r:id="rId1"/>
+    <sheet name="スプリント01確認" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="70">
   <si>
     <t>関数名</t>
     <rPh sb="0" eb="2">
@@ -571,6 +572,48 @@
   </si>
   <si>
     <t>object(user_id, start_time, end_time, user_id, job_info)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>on.load</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現状確認シート</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ読み込み時に読みだされるinput_info_logs, を呼び出し, get_start_time, change_show_buttonボタンの変更を行う</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -899,9 +942,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1265,4 +1308,142 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954B8E23-BA58-47BD-A5D7-80E3FFF184C3}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/design.xlsx
+++ b/docs/design.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app\server\public_html\Part_Time_Stopwatch_PS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581DCFBB-F62D-47E2-AF35-501C434D09B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA21CB6-2AB9-4D34-90E9-A7BB0278BCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="240" windowWidth="20220" windowHeight="11736" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2388" yWindow="732" windowWidth="20220" windowHeight="11736" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリント01" sheetId="1" r:id="rId1"/>
     <sheet name="スプリント01確認" sheetId="2" r:id="rId2"/>
+    <sheet name="スプリント01変更" sheetId="4" r:id="rId3"/>
+    <sheet name="スプリント02" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,17 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="70">
-  <si>
-    <t>関数名</t>
-    <rPh sb="0" eb="2">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
   <si>
     <t>その他</t>
     <rPh sb="2" eb="3">
@@ -90,16 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>戻り値</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>引数</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
@@ -613,6 +595,367 @@
     </rPh>
     <rPh sb="80" eb="81">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add_button</t>
+  </si>
+  <si>
+    <t>追加ボタンを押したときに呼び出される．show_input_info_popup, set_info_popup_whiteを呼び出す</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートボタンを押したときに呼び出される．add_start_time，change_show_button(false)を呼び出す</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string(user_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了ボタンを押したときに呼び出される．show_input_info_popup, set_info_popup_white, input_info_popup_initを呼び出す</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数名, 変数名</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値, データ型</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値, データ型</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contents.js全体</t>
+    <rPh sb="11" eb="13">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_idはphpのほうで$_SESSIONを使い取得可能であるので，わざわざPOSTで送らないようにする</t>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数input_info_popup_init, set_info_popup_white</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力する関数を用意し，統合する</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報入力のポップアップの完了ボタンを押したときに呼び出される．ポップアップを閉じる．change_show_button(true), add_part_times, delete_start_time, close_input_info_popup, input_info_logsを呼び出す</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excelのポップアップの完了ボタンを押したときに呼び出される．ポップアップを閉じる．post_change_excel, download_output_file, delete_output_fileを呼び出す</t>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>----ボタン類</t>
+    <rPh sb="7" eb="8">
+      <t>ルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>----POST, GET類</t>
+    <rPh sb="13" eb="14">
+      <t>ルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add_start_time</t>
+  </si>
+  <si>
+    <t>POSTはuser_id, start_timeを含む</t>
+    <rPh sb="25" eb="26">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add_start_time.phpにPOSTを投げる．stock_timesテーブルに情報を追加する．エラーがなければtrueを返す</t>
+    <rPh sb="24" eb="25">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get_start_time.phpにPOSTを投げる．stock_timesテーブルの情報を取ってくる．start_timeを返す．なければnullを返す</t>
+    <rPh sb="24" eb="25">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSTはuser_idを含む</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_start_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_start_time.phpにPOSTを投げる．stock_timesテーブル上のuser_idの情報を削除する．エラーがなければtrueを返す</t>
+    <rPh sb="27" eb="28">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add_part_times</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add_part_times.phpにPOSTを投げる．part_timesテーブルに情報を追加する．エラーがなければtrueを返す</t>
+    <rPh sb="24" eb="25">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSTはstart_time，end_time，user_id，job_info，othersを含む</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_change_excel</t>
+  </si>
+  <si>
+    <t>FormData(file, user_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add_job_info_for_excel.phpにPOSTを投げる．サーバ上にoutput.xlsxを生成する．エラーがなければtrueを返す</t>
+    <rPh sb="32" eb="33">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSTはfile, user_idを含む</t>
+    <rPh sb="19" eb="20">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_output_file</t>
+  </si>
+  <si>
+    <t>delete_output_file.phpにGETを投げる．一時的に生成したoutput.xlsxを削除する．エラーがなければtrueを返す</t>
+    <rPh sb="27" eb="28">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object(start_time, end_time, job_info, others)のリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get_part_times.phpにPOSTを投げる．part_timesテーブルの情報を取ってくる．start_time, end_time, job_info, others を含むリストを返す．なければnullを返す．</t>
+    <rPh sb="24" eb="25">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -940,11 +1283,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD8"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -955,352 +1298,357 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>61</v>
+      <c r="A24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="1" t="s">
-        <v>37</v>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1312,10 +1660,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954B8E23-BA58-47BD-A5D7-80E3FFF184C3}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1327,118 +1676,253 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
         <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1446,4 +1930,206 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88DE8B2-4AD0-451F-8C08-55C76DB526B9}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="42.296875" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CCACB9-8356-489D-A7E7-30BD78CF3ECD}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/design.xlsx
+++ b/docs/design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app\server\public_html\Part_Time_Stopwatch_PS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA21CB6-2AB9-4D34-90E9-A7BB0278BCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6232017-879E-4B0C-B39F-E014F12A1D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2388" yWindow="732" windowWidth="20220" windowHeight="11736" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2112" yWindow="804" windowWidth="20220" windowHeight="11736" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリント01" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="136">
   <si>
     <t>その他</t>
     <rPh sb="2" eb="3">
@@ -957,6 +957,130 @@
     <rPh sb="110" eb="111">
       <t>カエ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>----表示類</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>change_show_button</t>
+  </si>
+  <si>
+    <t>trueの時スタートボタン, falseの時終了ボタンを表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show_input_info_popup</t>
+  </si>
+  <si>
+    <t>close_input_info_popup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報入力ポップアップを表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報入力ポップアップを閉じる</t>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show_input_excel_popup</t>
+  </si>
+  <si>
+    <t>excel入力ポップアップを表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>close_input_excel_popup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel入力ポップアップを閉じる</t>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input_info_popup_init</t>
+  </si>
+  <si>
+    <t>object(user_id, end_time)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報入力ポップアップに初期情報を入力するstart_timeがとってこれなかった時はfalseを返す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>set_info_popup_white</t>
+  </si>
+  <si>
+    <t>情報入力ポップアップを何も入力されていない画面にする</t>
+  </si>
+  <si>
+    <t>input_info_logs</t>
+  </si>
+  <si>
+    <t>ログ表示をする</t>
+  </si>
+  <si>
+    <t>----その他</t>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_format</t>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されたdateをYYYY-MM-DD HH:MM:SSの形にして返す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime_local_format</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されたYYYY-MM-DD HH:MM:SS型のstringをYYYY-MM-DDTHH:MMの形にして返す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formの情報が入力されているかを返す入力できていればtrue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input_info_check</t>
+  </si>
+  <si>
+    <t>form(document.form)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>download_output_file</t>
+  </si>
+  <si>
+    <t>output.xlsxをダウンロードさせる</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1660,11 +1784,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954B8E23-BA58-47BD-A5D7-80E3FFF184C3}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1923,6 +2047,184 @@
       </c>
       <c r="F19" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
